--- a/dataset/Record Image Label.xlsx
+++ b/dataset/Record Image Label.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -463,6 +462,566 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hl1Gesture R A 1.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>640</v>
+      </c>
+      <c r="D2" t="n">
+        <v>480</v>
+      </c>
+      <c r="E2" t="n">
+        <v>138</v>
+      </c>
+      <c r="F2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G2" t="n">
+        <v>190</v>
+      </c>
+      <c r="H2" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hl2Gesture R A 2.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>640</v>
+      </c>
+      <c r="D3" t="n">
+        <v>480</v>
+      </c>
+      <c r="E3" t="n">
+        <v>140</v>
+      </c>
+      <c r="F3" t="n">
+        <v>231</v>
+      </c>
+      <c r="G3" t="n">
+        <v>191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hl3Gesture R A 3.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640</v>
+      </c>
+      <c r="D4" t="n">
+        <v>480</v>
+      </c>
+      <c r="E4" t="n">
+        <v>141</v>
+      </c>
+      <c r="F4" t="n">
+        <v>231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>191</v>
+      </c>
+      <c r="H4" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hl4Gesture R A 4.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>640</v>
+      </c>
+      <c r="D5" t="n">
+        <v>480</v>
+      </c>
+      <c r="E5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F5" t="n">
+        <v>231</v>
+      </c>
+      <c r="G5" t="n">
+        <v>191</v>
+      </c>
+      <c r="H5" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hl5Gesture R A 5.jpg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>640</v>
+      </c>
+      <c r="D6" t="n">
+        <v>480</v>
+      </c>
+      <c r="E6" t="n">
+        <v>144</v>
+      </c>
+      <c r="F6" t="n">
+        <v>231</v>
+      </c>
+      <c r="G6" t="n">
+        <v>192</v>
+      </c>
+      <c r="H6" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hl6Gesture L A 6.jpg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>640</v>
+      </c>
+      <c r="D7" t="n">
+        <v>480</v>
+      </c>
+      <c r="E7" t="n">
+        <v>363</v>
+      </c>
+      <c r="F7" t="n">
+        <v>447</v>
+      </c>
+      <c r="G7" t="n">
+        <v>222</v>
+      </c>
+      <c r="H7" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hl7Gesture L A 7.jpg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>640</v>
+      </c>
+      <c r="D8" t="n">
+        <v>480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>361</v>
+      </c>
+      <c r="F8" t="n">
+        <v>447</v>
+      </c>
+      <c r="G8" t="n">
+        <v>224</v>
+      </c>
+      <c r="H8" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hl8Gesture L A 8.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>640</v>
+      </c>
+      <c r="D9" t="n">
+        <v>480</v>
+      </c>
+      <c r="E9" t="n">
+        <v>360</v>
+      </c>
+      <c r="F9" t="n">
+        <v>446</v>
+      </c>
+      <c r="G9" t="n">
+        <v>224</v>
+      </c>
+      <c r="H9" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hl9Gesture L A 9.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>640</v>
+      </c>
+      <c r="D10" t="n">
+        <v>480</v>
+      </c>
+      <c r="E10" t="n">
+        <v>360</v>
+      </c>
+      <c r="F10" t="n">
+        <v>446</v>
+      </c>
+      <c r="G10" t="n">
+        <v>224</v>
+      </c>
+      <c r="H10" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>hl10Gesture L A 10.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>640</v>
+      </c>
+      <c r="D11" t="n">
+        <v>480</v>
+      </c>
+      <c r="E11" t="n">
+        <v>360</v>
+      </c>
+      <c r="F11" t="n">
+        <v>446</v>
+      </c>
+      <c r="G11" t="n">
+        <v>224</v>
+      </c>
+      <c r="H11" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hl11Gesture R A 11.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>640</v>
+      </c>
+      <c r="D12" t="n">
+        <v>480</v>
+      </c>
+      <c r="E12" t="n">
+        <v>109</v>
+      </c>
+      <c r="F12" t="n">
+        <v>224</v>
+      </c>
+      <c r="G12" t="n">
+        <v>105</v>
+      </c>
+      <c r="H12" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hl12Gesture R A 12.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>640</v>
+      </c>
+      <c r="D13" t="n">
+        <v>480</v>
+      </c>
+      <c r="E13" t="n">
+        <v>110</v>
+      </c>
+      <c r="F13" t="n">
+        <v>223</v>
+      </c>
+      <c r="G13" t="n">
+        <v>105</v>
+      </c>
+      <c r="H13" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hl13Gesture R A 13.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>640</v>
+      </c>
+      <c r="D14" t="n">
+        <v>480</v>
+      </c>
+      <c r="E14" t="n">
+        <v>111</v>
+      </c>
+      <c r="F14" t="n">
+        <v>223</v>
+      </c>
+      <c r="G14" t="n">
+        <v>106</v>
+      </c>
+      <c r="H14" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hl14Gesture R A 14.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>640</v>
+      </c>
+      <c r="D15" t="n">
+        <v>480</v>
+      </c>
+      <c r="E15" t="n">
+        <v>112</v>
+      </c>
+      <c r="F15" t="n">
+        <v>224</v>
+      </c>
+      <c r="G15" t="n">
+        <v>107</v>
+      </c>
+      <c r="H15" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hl15Gesture R A 15.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>640</v>
+      </c>
+      <c r="D16" t="n">
+        <v>480</v>
+      </c>
+      <c r="E16" t="n">
+        <v>111</v>
+      </c>
+      <c r="F16" t="n">
+        <v>224</v>
+      </c>
+      <c r="G16" t="n">
+        <v>107</v>
+      </c>
+      <c r="H16" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hl16Gesture L A 16.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>640</v>
+      </c>
+      <c r="D17" t="n">
+        <v>480</v>
+      </c>
+      <c r="E17" t="n">
+        <v>391</v>
+      </c>
+      <c r="F17" t="n">
+        <v>492</v>
+      </c>
+      <c r="G17" t="n">
+        <v>156</v>
+      </c>
+      <c r="H17" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hl17Gesture L A 17.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>640</v>
+      </c>
+      <c r="D18" t="n">
+        <v>480</v>
+      </c>
+      <c r="E18" t="n">
+        <v>392</v>
+      </c>
+      <c r="F18" t="n">
+        <v>491</v>
+      </c>
+      <c r="G18" t="n">
+        <v>156</v>
+      </c>
+      <c r="H18" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hl18Gesture L A 18.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>640</v>
+      </c>
+      <c r="D19" t="n">
+        <v>480</v>
+      </c>
+      <c r="E19" t="n">
+        <v>391</v>
+      </c>
+      <c r="F19" t="n">
+        <v>492</v>
+      </c>
+      <c r="G19" t="n">
+        <v>156</v>
+      </c>
+      <c r="H19" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hl19Gesture L A 19.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>640</v>
+      </c>
+      <c r="D20" t="n">
+        <v>480</v>
+      </c>
+      <c r="E20" t="n">
+        <v>391</v>
+      </c>
+      <c r="F20" t="n">
+        <v>492</v>
+      </c>
+      <c r="G20" t="n">
+        <v>157</v>
+      </c>
+      <c r="H20" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hl20Gesture L A 20.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>640</v>
+      </c>
+      <c r="D21" t="n">
+        <v>480</v>
+      </c>
+      <c r="E21" t="n">
+        <v>392</v>
+      </c>
+      <c r="F21" t="n">
+        <v>492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>157</v>
+      </c>
+      <c r="H21" t="n">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
